--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zango\PycharmProjects\pySchedulingGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C815CCDE-8CB8-42E0-B6D6-2567DF240F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D372AF2-0EDE-471C-8E30-4F7E25A68CCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6315" yWindow="4680" windowWidth="21600" windowHeight="11385" xr2:uid="{5BF990A5-4107-4CFF-90E1-2DA3DD86FD5B}"/>
   </bookViews>
@@ -34,24 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>3 4 7</t>
-  </si>
-  <si>
-    <t>1 2 8</t>
-  </si>
-  <si>
-    <t>1 2 3</t>
-  </si>
-  <si>
-    <t>4 5 6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>2 2 5</t>
   </si>
   <si>
     <t>3 5 7</t>
+  </si>
+  <si>
+    <t>1 5 10</t>
   </si>
 </sst>
 </file>
@@ -403,36 +394,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BEE62F-AEC1-4644-997E-8FE161DE8E0C}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zango\PycharmProjects\pySchedulingGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D372AF2-0EDE-471C-8E30-4F7E25A68CCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15CA8AC-133F-473A-A041-CB48D8A4A0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="4680" windowWidth="21600" windowHeight="11385" xr2:uid="{5BF990A5-4107-4CFF-90E1-2DA3DD86FD5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BF990A5-4107-4CFF-90E1-2DA3DD86FD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>2 2 5</t>
+    <t>2 5 5</t>
   </si>
   <si>
-    <t>3 5 7</t>
-  </si>
-  <si>
-    <t>1 5 10</t>
+    <t>3 7 7</t>
   </si>
 </sst>
 </file>
@@ -394,24 +391,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BEE62F-AEC1-4644-997E-8FE161DE8E0C}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
